--- a/MatriceDeRisques.xlsx
+++ b/MatriceDeRisques.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Auggus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2eme annee - 2nd semestre\Git Docs 2eme semestre\Branche Générales\Economie 2ème\Rendu BP\Git Sharing UwU\Capitalisme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAF049F-BE37-4552-932F-C9116C9DB5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC655AF1-DA67-4A94-A2B3-D394D69C2EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="516" windowWidth="17280" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Insignifiante</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Probable</t>
   </si>
   <si>
-    <t>Moderé</t>
-  </si>
-  <si>
     <t>Rare</t>
   </si>
   <si>
@@ -72,10 +69,25 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Risque stock clés</t>
-  </si>
-  <si>
-    <t>Risque pannes de service web</t>
+    <t>Risque de peu stock clés</t>
+  </si>
+  <si>
+    <t>Compétition déjà bien en place</t>
+  </si>
+  <si>
+    <t>Risque de panne de service</t>
+  </si>
+  <si>
+    <t>Manque de temps des collaborateurs</t>
+  </si>
+  <si>
+    <t>Risque de nouvelle loi sur la vente de ce type de produit</t>
+  </si>
+  <si>
+    <t>Risque de seuil minimal de clients non-atteint</t>
+  </si>
+  <si>
+    <t>Modéré</t>
   </si>
 </sst>
 </file>
@@ -101,7 +113,7 @@
     <font>
       <b/>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -257,73 +269,9 @@
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -334,6 +282,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,220 +636,261 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.88671875" customWidth="1"/>
-    <col min="2" max="2" width="3.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.21875" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="J2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="6" t="s">
+      <c r="K2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="J4" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="J2" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="K4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="J5" s="1">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="K5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="J6" s="1">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="K6" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+      <c r="J7" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="K7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="20">
         <v>1</v>
       </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="E8" s="18"/>
+      <c r="F8" s="10">
+        <v>2</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1">
+        <v>6</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="J9" s="1">
+        <v>7</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="20">
+        <v>5</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="J10" s="1">
+        <v>8</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="J11" s="1">
+        <v>9</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="C12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="18">
+        <v>4</v>
+      </c>
+      <c r="H12" s="10">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="14"/>
+      <c r="J13" s="1">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="J4" s="2">
-        <v>2</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="J5" s="2">
-        <v>3</v>
-      </c>
-      <c r="K5" s="26"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="19"/>
-      <c r="J6" s="2">
-        <v>4</v>
-      </c>
-      <c r="K6" s="26"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="20"/>
-      <c r="J7" s="2">
-        <v>5</v>
-      </c>
-      <c r="K7" s="26"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="21"/>
-      <c r="J8" s="2">
-        <v>6</v>
-      </c>
-      <c r="K8" s="26"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="22"/>
-      <c r="J9" s="2">
-        <v>7</v>
-      </c>
-      <c r="K9" s="26"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="17"/>
-      <c r="J10" s="2">
-        <v>8</v>
-      </c>
-      <c r="K10" s="26"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="18"/>
-      <c r="J11" s="2">
-        <v>9</v>
-      </c>
-      <c r="K11" s="26"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="15"/>
-      <c r="J12" s="2">
-        <v>10</v>
-      </c>
-      <c r="K12" s="26"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="16"/>
-      <c r="J13" s="2">
-        <v>11</v>
-      </c>
-      <c r="K13" s="26"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="K13" s="4"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="H10:H11"/>
@@ -847,28 +902,6 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
